--- a/labs/harvest/harvest-lab.xlsx
+++ b/labs/harvest/harvest-lab.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Excercise I" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Year</t>
   </si>
@@ -30,15 +30,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>h (part d)</t>
-  </si>
-  <si>
     <t>rmax</t>
   </si>
   <si>
@@ -57,15 +48,9 @@
     <t>Post-harvest survival</t>
   </si>
   <si>
-    <t>Survival (part a)</t>
-  </si>
-  <si>
     <t>Final abundance (one year after harvest)</t>
   </si>
   <si>
-    <t>Geometric or logistic?</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -87,28 +72,49 @@
     <t>Abundance immediately after harvest</t>
   </si>
   <si>
-    <t>Part d: Final abundance (one year after no harvest)</t>
-  </si>
-  <si>
-    <t>Part c: Why does curve peak at intermediate harvest values?</t>
-  </si>
-  <si>
     <t>Harvest (H) option</t>
   </si>
   <si>
-    <t>N at MSY (part c)</t>
-  </si>
-  <si>
-    <t>MSY (part d)</t>
-  </si>
-  <si>
-    <t>Part e: How many deer should be taken?</t>
+    <t>Geometric or logistic? (question 1)</t>
+  </si>
+  <si>
+    <t>r (question 2)</t>
+  </si>
+  <si>
+    <t>d (question 3)</t>
+  </si>
+  <si>
+    <t>h (question 4)</t>
+  </si>
+  <si>
+    <t>N at MSY (question 3)</t>
+  </si>
+  <si>
+    <t>MSY (question 4)</t>
+  </si>
+  <si>
+    <t>Leave blank</t>
+  </si>
+  <si>
+    <t>Survival (question 1)</t>
+  </si>
+  <si>
+    <t>Question 2</t>
+  </si>
+  <si>
+    <t>Final abundance, one year after no harvest (question 4)</t>
+  </si>
+  <si>
+    <t>How many deer should be taken? (question 5)</t>
+  </si>
+  <si>
+    <t>Why does curve peak at intermediate harvest values? (question 3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -180,6 +186,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,23 +282,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -325,23 +317,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,17 +495,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,19 +519,19 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2005</v>
       </c>
@@ -568,7 +546,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2006</v>
       </c>
@@ -579,7 +557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2007</v>
       </c>
@@ -590,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2008</v>
       </c>
@@ -601,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -612,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2010</v>
       </c>
@@ -623,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2011</v>
       </c>
@@ -634,100 +612,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2012</v>
       </c>
       <c r="B9" s="1">
         <v>6103.515625</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2013</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2014</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2015</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2016</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2017</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2018</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2019</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2020</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2021</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2022</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2023</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2024</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="2"/>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -738,53 +716,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -806,7 +785,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -815,7 +794,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -824,7 +803,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -833,7 +812,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -842,7 +821,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -851,7 +830,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -860,7 +839,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -869,7 +848,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -878,7 +857,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -887,7 +866,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -896,7 +875,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -905,7 +884,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -914,7 +893,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -923,7 +902,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -932,7 +911,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -941,7 +920,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -950,7 +929,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -959,7 +938,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -968,7 +947,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -977,7 +956,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -986,7 +965,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -995,7 +974,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1004,7 +983,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1013,7 +992,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1022,7 +1001,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1031,7 +1010,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1040,7 +1019,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1049,7 +1028,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1058,7 +1037,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1067,7 +1046,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1076,7 +1055,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1085,7 +1064,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1094,7 +1073,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1103,7 +1082,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1112,7 +1091,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1121,7 +1100,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1130,7 +1109,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1139,7 +1118,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1148,7 +1127,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1157,7 +1136,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1165,14 +1144,14 @@
       <c r="C42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
@@ -1183,289 +1162,299 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" customWidth="1"/>
+    <col min="11" max="11" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>10</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="D2">
+      <c r="B3" s="2"/>
+      <c r="D3">
         <v>0.95</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>200</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>10</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="H3">
-        <v>20</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2"/>
       <c r="H4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2"/>
       <c r="H5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2"/>
       <c r="H6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2"/>
       <c r="H7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2"/>
       <c r="H8">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2"/>
       <c r="H9">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2"/>
       <c r="H10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B11" s="2"/>
       <c r="H11">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2"/>
       <c r="H12">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2"/>
       <c r="H13">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2"/>
       <c r="H14">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2"/>
       <c r="H15">
+        <v>130</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>140</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="B16" s="2"/>
+      <c r="H16">
+        <v>140</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>150</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="H16" s="5">
+      <c r="B17" s="2"/>
+      <c r="H17" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>160</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>170</v>
       </c>
       <c r="B18" s="2"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B19" s="2"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B20" s="2"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="H21" s="5"/>
-      <c r="I21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>200</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="H22" s="5"/>
+      <c r="I22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/labs/harvest/harvest-lab.xlsx
+++ b/labs/harvest/harvest-lab.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20354"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60FBAA9-C99B-4181-B890-B45CF40FEE01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excercise I" sheetId="1" r:id="rId1"/>
     <sheet name="Exercise II" sheetId="3" r:id="rId2"/>
     <sheet name="Exercise III" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Year</t>
   </si>
@@ -54,18 +55,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>N without harvest</t>
-  </si>
-  <si>
-    <t>Sustainable harvest (Ht)</t>
-  </si>
-  <si>
-    <t>N with harvest</t>
-  </si>
-  <si>
-    <t>Harvest (Ht) plan to achieve MSY</t>
-  </si>
-  <si>
     <t>Leave this cell blank</t>
   </si>
   <si>
@@ -109,19 +98,161 @@
   </si>
   <si>
     <t>Why does curve peak at intermediate harvest values? (question 3)</t>
+  </si>
+  <si>
+    <r>
+      <t>lambda (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>λ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>t-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>N without harvest (question 1)</t>
+  </si>
+  <si>
+    <t>Sustainable harvest (Ht) (question 2)</t>
+  </si>
+  <si>
+    <t>Harvest rate (h) (question 4)</t>
+  </si>
+  <si>
+    <t>N with harvest (question 5)</t>
+  </si>
+  <si>
+    <t>Harvest (Ht) plan to achieve MSY (question 5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -178,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -188,6 +319,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -282,6 +419,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -317,6 +471,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -492,278 +663,305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2005</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2006</v>
       </c>
       <c r="B3" s="1">
         <v>25</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3"/>
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2007</v>
       </c>
       <c r="B4" s="1">
         <v>62.5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3"/>
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2008</v>
       </c>
       <c r="B5" s="1">
         <v>156.25</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3"/>
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2009</v>
       </c>
       <c r="B6" s="1">
         <v>390.625</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3"/>
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2010</v>
       </c>
       <c r="B7" s="1">
         <v>976.5625</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3"/>
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2011</v>
       </c>
       <c r="B8" s="1">
         <v>2441.40625</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3"/>
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2012</v>
       </c>
       <c r="B9" s="1">
         <v>6103.515625</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2013</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2014</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2016</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2017</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2018</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2019</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2020</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2021</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2023</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2024</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" t="s">
-        <v>25</v>
+      <c r="C21" s="1"/>
+      <c r="D21" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
+      <c r="B1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -772,386 +970,386 @@
       </c>
       <c r="C2" s="3"/>
       <c r="E2">
+        <v>0.32</v>
+      </c>
+      <c r="F2">
+        <v>2000</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="L2">
         <v>100</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="I2">
-        <v>0.32</v>
-      </c>
-      <c r="J2">
-        <v>2000</v>
-      </c>
-      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L3" s="3"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L4" s="3"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L5" s="3"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L6" s="3"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L7" s="3"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L12" s="3"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L13" s="3"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L14" s="3"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L25" s="3"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L28" s="3"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L29" s="3"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L30" s="3"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L31" s="3"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L34" s="3"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L36" s="3"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L37" s="3"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L38" s="3"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="L42" s="3"/>
+      <c r="M42" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
@@ -1161,37 +1359,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.109375" customWidth="1"/>
-    <col min="11" max="11" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I1" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1203,10 +1401,10 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>9</v>
@@ -1215,10 +1413,10 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1240,7 +1438,7 @@
       <c r="K3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
@@ -1252,7 +1450,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
@@ -1264,10 +1462,10 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="M5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40</v>
       </c>
@@ -1280,7 +1478,7 @@
       <c r="K6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1292,7 +1490,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
@@ -1304,7 +1502,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
@@ -1316,7 +1514,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80</v>
       </c>
@@ -1328,7 +1526,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90</v>
       </c>
@@ -1340,7 +1538,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
@@ -1352,7 +1550,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>110</v>
       </c>
@@ -1364,7 +1562,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>120</v>
       </c>
@@ -1376,7 +1574,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>130</v>
       </c>
@@ -1388,7 +1586,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>140</v>
       </c>
@@ -1400,7 +1598,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>150</v>
       </c>
@@ -1412,42 +1610,42 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>160</v>
       </c>
       <c r="B18" s="2"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>170</v>
       </c>
       <c r="B19" s="2"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>180</v>
       </c>
       <c r="B20" s="2"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="H22" s="5"/>
       <c r="I22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K22" s="2"/>
     </row>

--- a/labs/harvest/harvest-lab.xlsx
+++ b/labs/harvest/harvest-lab.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20354"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60FBAA9-C99B-4181-B890-B45CF40FEE01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F553C0-F0BC-4108-8A32-CCB60F4CF569}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excercise I" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Year</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>How many deer should be taken? (question 5)</t>
-  </si>
-  <si>
-    <t>Why does curve peak at intermediate harvest values? (question 3)</t>
   </si>
   <si>
     <r>
@@ -309,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -317,15 +314,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,13 +665,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
@@ -687,8 +686,8 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
+      <c r="C1" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -713,7 +712,7 @@
       <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D2">
@@ -731,7 +730,7 @@
       <c r="B3" s="1">
         <v>25</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="11"/>
       <c r="D3">
         <v>0</v>
       </c>
@@ -743,7 +742,7 @@
       <c r="B4" s="1">
         <v>62.5</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="11"/>
       <c r="D4">
         <v>0</v>
       </c>
@@ -755,7 +754,7 @@
       <c r="B5" s="1">
         <v>156.25</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="11"/>
       <c r="D5">
         <v>0</v>
       </c>
@@ -767,7 +766,7 @@
       <c r="B6" s="1">
         <v>390.625</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="11"/>
       <c r="D6">
         <v>0</v>
       </c>
@@ -779,7 +778,7 @@
       <c r="B7" s="1">
         <v>976.5625</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="11"/>
       <c r="D7">
         <v>0</v>
       </c>
@@ -791,7 +790,7 @@
       <c r="B8" s="1">
         <v>2441.40625</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="11"/>
       <c r="D8">
         <v>0</v>
       </c>
@@ -803,7 +802,7 @@
       <c r="B9" s="1">
         <v>6103.515625</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -811,7 +810,6 @@
         <v>2013</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -819,7 +817,6 @@
         <v>2014</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="1"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -827,7 +824,6 @@
         <v>2015</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="1"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -835,7 +831,6 @@
         <v>2016</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="1"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -843,7 +838,6 @@
         <v>2017</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -851,7 +845,6 @@
         <v>2018</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -859,7 +852,6 @@
         <v>2019</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="1"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -867,7 +859,6 @@
         <v>2020</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="1"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -875,7 +866,6 @@
         <v>2021</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -883,7 +873,6 @@
         <v>2022</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -891,7 +880,6 @@
         <v>2023</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="1"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,7 +887,6 @@
         <v>2024</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="1"/>
       <c r="D21" t="s">
         <v>21</v>
       </c>
@@ -933,11 +920,11 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -945,20 +932,20 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1362,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,11 +1365,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1644,10 +1631,6 @@
       </c>
       <c r="B22" s="2"/>
       <c r="H22" s="5"/>
-      <c r="I22" t="s">
-        <v>26</v>
-      </c>
-      <c r="K22" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/labs/harvest/harvest-lab.xlsx
+++ b/labs/harvest/harvest-lab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbchan\courses\applied-popdy\labs\harvest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2C59EC-A048-4FEE-9628-EFCA1E8F4878}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDFCF2F-8EE1-443C-BDC0-0DEE9E0913F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Excercise I" sheetId="1" r:id="rId1"/>
@@ -330,9 +330,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -347,6 +344,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,13 +731,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
@@ -749,10 +749,10 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -775,28 +775,28 @@
       <c r="A2">
         <v>2005</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2006</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>25</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
       <c r="D3">
         <v>0</v>
       </c>
@@ -805,10 +805,10 @@
       <c r="A4">
         <v>2007</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>62.5</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
       <c r="D4">
         <v>0</v>
       </c>
@@ -817,10 +817,10 @@
       <c r="A5">
         <v>2008</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>156.25</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="4"/>
       <c r="D5">
         <v>0</v>
       </c>
@@ -829,10 +829,10 @@
       <c r="A6">
         <v>2009</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>390.625</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="4"/>
       <c r="D6">
         <v>0</v>
       </c>
@@ -841,10 +841,10 @@
       <c r="A7">
         <v>2010</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>976.5625</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="4"/>
       <c r="D7">
         <v>0</v>
       </c>
@@ -853,10 +853,10 @@
       <c r="A8">
         <v>2011</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>2441.40625</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="4"/>
       <c r="D8">
         <v>0</v>
       </c>
@@ -865,94 +865,94 @@
       <c r="A9">
         <v>2012</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>6103.515625</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2013</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2014</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2015</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2016</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2017</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2018</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2019</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2020</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2021</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2022</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2023</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2024</v>
       </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="5"/>
       <c r="D21" t="s">
         <v>9</v>
       </c>
@@ -968,7 +968,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,10 +986,10 @@
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E1" t="s">
@@ -998,19 +998,19 @@
       <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1018,393 +1018,393 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>100</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="5"/>
       <c r="E2">
         <v>0.32</v>
       </c>
       <c r="F2">
         <v>2000</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="L2">
         <v>100</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="9" t="s">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1416,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,11 +1432,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1474,7 +1474,7 @@
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
       <c r="D3">
         <v>0.95</v>
       </c>
@@ -1487,34 +1487,34 @@
       <c r="H3">
         <v>10</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="M3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="H4">
         <v>20</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="3"/>
       <c r="H5">
         <v>30</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
       <c r="M5" t="s">
         <v>30</v>
       </c>
@@ -1523,181 +1523,181 @@
       <c r="A6">
         <v>40</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="3"/>
       <c r="H6">
         <v>40</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
       <c r="H7">
         <v>50</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>60</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="3"/>
       <c r="H8">
         <v>60</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>70</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="H9">
         <v>70</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>80</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
       <c r="H10">
         <v>80</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>90</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
       <c r="H11">
         <v>90</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>100</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="3"/>
       <c r="H12">
         <v>100</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>110</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="3"/>
       <c r="H13">
         <v>110</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>120</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="3"/>
       <c r="H14">
         <v>120</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>130</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="3"/>
       <c r="H15">
         <v>130</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>140</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="3"/>
       <c r="H16">
         <v>140</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>150</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="H17" s="11">
+      <c r="B17" s="3"/>
+      <c r="H17" s="10">
         <v>150</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>160</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="H18" s="11"/>
+      <c r="B18" s="3"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>170</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="H19" s="11"/>
+      <c r="B19" s="3"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>180</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="H20" s="11"/>
+      <c r="B20" s="3"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>190</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="3"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>200</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="H22" s="11"/>
+      <c r="B22" s="3"/>
+      <c r="H22" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
